--- a/BUNDES_FINALSPREAD.xlsx
+++ b/BUNDES_FINALSPREAD.xlsx
@@ -3600,7 +3600,7 @@
         <v>15.0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="CB4" t="n">
         <v>0.0</v>
@@ -4335,7 +4335,7 @@
         <v>0.0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="CB7" t="n">
         <v>0.0</v>
@@ -4580,7 +4580,7 @@
         <v>0.0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="CB8" t="n">
         <v>0.0</v>
@@ -8990,7 +8990,7 @@
         <v>22.0</v>
       </c>
       <c r="CA26" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="CB26" t="n">
         <v>0.0</v>
@@ -9725,7 +9725,7 @@
         <v>34.0</v>
       </c>
       <c r="CA29" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="CB29" t="n">
         <v>1.0</v>
@@ -10950,7 +10950,7 @@
         <v>0.0</v>
       </c>
       <c r="CA34" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="CB34" t="n">
         <v>0.0</v>
@@ -12420,7 +12420,7 @@
         <v>27.0</v>
       </c>
       <c r="CA40" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="CB40" t="n">
         <v>1.0</v>
@@ -12665,7 +12665,7 @@
         <v>24.0</v>
       </c>
       <c r="CA41" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="CB41" t="n">
         <v>0.0</v>
@@ -17810,7 +17810,7 @@
         <v>0.0</v>
       </c>
       <c r="CA62" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="CB62" t="n">
         <v>0.0</v>
@@ -18055,7 +18055,7 @@
         <v>0.0</v>
       </c>
       <c r="CA63" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="CB63" t="n">
         <v>0.0</v>
@@ -19280,7 +19280,7 @@
         <v>0.0</v>
       </c>
       <c r="CA68" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="CB68" t="n">
         <v>0.0</v>
@@ -20260,7 +20260,7 @@
         <v>74.0</v>
       </c>
       <c r="CA72" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="CB72" t="n">
         <v>2.0</v>
@@ -21485,7 +21485,7 @@
         <v>47.0</v>
       </c>
       <c r="CA77" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="CB77" t="n">
         <v>0.0</v>
@@ -22710,7 +22710,7 @@
         <v>14.0</v>
       </c>
       <c r="CA82" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="CB82" t="n">
         <v>0.0</v>
@@ -24180,7 +24180,7 @@
         <v>29.0</v>
       </c>
       <c r="CA88" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="CB88" t="n">
         <v>0.0</v>
@@ -25650,7 +25650,7 @@
         <v>0.0</v>
       </c>
       <c r="CA94" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="CB94" t="n">
         <v>0.0</v>
@@ -26630,7 +26630,7 @@
         <v>74.0</v>
       </c>
       <c r="CA98" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="CB98" t="n">
         <v>0.0</v>
@@ -27120,7 +27120,7 @@
         <v>0.0</v>
       </c>
       <c r="CA100" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="CB100" t="n">
         <v>1.0</v>
@@ -27365,7 +27365,7 @@
         <v>52.0</v>
       </c>
       <c r="CA101" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="CB101" t="n">
         <v>0.0</v>
@@ -27855,7 +27855,7 @@
         <v>0.0</v>
       </c>
       <c r="CA103" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="CB103" t="n">
         <v>0.0</v>
@@ -28835,7 +28835,7 @@
         <v>95.0</v>
       </c>
       <c r="CA107" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="CB107" t="n">
         <v>0.0</v>
@@ -30550,7 +30550,7 @@
         <v>0.0</v>
       </c>
       <c r="CA114" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="CB114" t="n">
         <v>1.0</v>
@@ -34470,7 +34470,7 @@
         <v>0.0</v>
       </c>
       <c r="CA130" t="n">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="CB130" t="n">
         <v>0.0</v>
@@ -35695,7 +35695,7 @@
         <v>31.0</v>
       </c>
       <c r="CA135" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="CB135" t="n">
         <v>0.0</v>
@@ -36185,7 +36185,7 @@
         <v>39.0</v>
       </c>
       <c r="CA137" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="CB137" t="n">
         <v>0.0</v>
@@ -37410,7 +37410,7 @@
         <v>39.0</v>
       </c>
       <c r="CA142" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="CB142" t="n">
         <v>1.0</v>
@@ -37655,7 +37655,7 @@
         <v>11.0</v>
       </c>
       <c r="CA143" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="CB143" t="n">
         <v>0.0</v>
@@ -38880,7 +38880,7 @@
         <v>50.0</v>
       </c>
       <c r="CA148" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="CB148" t="n">
         <v>0.0</v>
@@ -39370,7 +39370,7 @@
         <v>41.0</v>
       </c>
       <c r="CA150" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="CB150" t="n">
         <v>0.0</v>
@@ -41330,7 +41330,7 @@
         <v>49.0</v>
       </c>
       <c r="CA158" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="CB158" t="n">
         <v>0.0</v>
@@ -43045,7 +43045,7 @@
         <v>0.0</v>
       </c>
       <c r="CA165" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="CB165" t="n">
         <v>1.0</v>
@@ -44760,7 +44760,7 @@
         <v>80.0</v>
       </c>
       <c r="CA172" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="CB172" t="n">
         <v>0.0</v>
@@ -45005,7 +45005,7 @@
         <v>30.0</v>
       </c>
       <c r="CA173" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="CB173" t="n">
         <v>0.0</v>
@@ -47210,7 +47210,7 @@
         <v>0.0</v>
       </c>
       <c r="CA182" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="CB182" t="n">
         <v>0.0</v>
@@ -47945,7 +47945,7 @@
         <v>56.0</v>
       </c>
       <c r="CA185" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="CB185" t="n">
         <v>0.0</v>
@@ -52110,7 +52110,7 @@
         <v>0.0</v>
       </c>
       <c r="CA202" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="CB202" t="n">
         <v>0.0</v>
@@ -54315,7 +54315,7 @@
         <v>0.0</v>
       </c>
       <c r="CA211" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="CB211" t="n">
         <v>0.0</v>
@@ -57010,7 +57010,7 @@
         <v>7.0</v>
       </c>
       <c r="CA222" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="CB222" t="n">
         <v>0.0</v>
@@ -58480,7 +58480,7 @@
         <v>0.0</v>
       </c>
       <c r="CA228" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="CB228" t="n">
         <v>0.0</v>
@@ -59705,7 +59705,7 @@
         <v>0.0</v>
       </c>
       <c r="CA233" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="CB233" t="n">
         <v>0.0</v>
@@ -59950,7 +59950,7 @@
         <v>0.0</v>
       </c>
       <c r="CA234" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="CB234" t="n">
         <v>0.0</v>
@@ -60685,7 +60685,7 @@
         <v>19.0</v>
       </c>
       <c r="CA237" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="CB237" t="n">
         <v>0.0</v>
@@ -60930,7 +60930,7 @@
         <v>0.0</v>
       </c>
       <c r="CA238" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="CB238" t="n">
         <v>0.0</v>
@@ -61910,7 +61910,7 @@
         <v>61.0</v>
       </c>
       <c r="CA242" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="CB242" t="n">
         <v>0.0</v>
@@ -62155,7 +62155,7 @@
         <v>0.0</v>
       </c>
       <c r="CA243" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="CB243" t="n">
         <v>0.0</v>
@@ -63380,7 +63380,7 @@
         <v>0.0</v>
       </c>
       <c r="CA248" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="CB248" t="n">
         <v>0.0</v>
@@ -65095,7 +65095,7 @@
         <v>5.0</v>
       </c>
       <c r="CA255" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="CB255" t="n">
         <v>0.0</v>
@@ -65585,7 +65585,7 @@
         <v>39.0</v>
       </c>
       <c r="CA257" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="CB257" t="n">
         <v>0.0</v>
@@ -66565,7 +66565,7 @@
         <v>4.0</v>
       </c>
       <c r="CA261" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="CB261" t="n">
         <v>0.0</v>
@@ -67300,7 +67300,7 @@
         <v>88.0</v>
       </c>
       <c r="CA264" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="CB264" t="n">
         <v>0.0</v>
@@ -69750,7 +69750,7 @@
         <v>60.0</v>
       </c>
       <c r="CA274" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="CB274" t="n">
         <v>1.0</v>
@@ -71710,7 +71710,7 @@
         <v>10.0</v>
       </c>
       <c r="CA282" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="CB282" t="n">
         <v>0.0</v>
@@ -72445,7 +72445,7 @@
         <v>7.0</v>
       </c>
       <c r="CA285" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="CB285" t="n">
         <v>0.0</v>
@@ -72935,7 +72935,7 @@
         <v>95.0</v>
       </c>
       <c r="CA287" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="CB287" t="n">
         <v>0.0</v>
@@ -74405,7 +74405,7 @@
         <v>0.0</v>
       </c>
       <c r="CA293" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="CB293" t="n">
         <v>0.0</v>
@@ -74650,7 +74650,7 @@
         <v>0.0</v>
       </c>
       <c r="CA294" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="CB294" t="n">
         <v>0.0</v>
@@ -75140,7 +75140,7 @@
         <v>0.0</v>
       </c>
       <c r="CA296" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="CB296" t="n">
         <v>0.0</v>
@@ -75385,7 +75385,7 @@
         <v>53.0</v>
       </c>
       <c r="CA297" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="CB297" t="n">
         <v>0.0</v>
@@ -75875,7 +75875,7 @@
         <v>7.0</v>
       </c>
       <c r="CA299" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="CB299" t="n">
         <v>0.0</v>
@@ -76855,7 +76855,7 @@
         <v>82.0</v>
       </c>
       <c r="CA303" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="CB303" t="n">
         <v>0.0</v>

--- a/BUNDES_FINALSPREAD.xlsx
+++ b/BUNDES_FINALSPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="270">
   <si>
     <t>Div</t>
   </si>
@@ -371,6 +371,33 @@
     <t>36</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -470,15 +497,15 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>3-3</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>3-3</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
@@ -509,6 +536,9 @@
     <t>2-4</t>
   </si>
   <si>
+    <t>3-4</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -530,9 +560,6 @@
     <t>5-4</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>11-2</t>
   </si>
   <si>
@@ -578,6 +605,21 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -692,7 +734,31 @@
     <t>St Pauli-RB Leipzig</t>
   </si>
   <si>
-    <t/>
+    <t>Dortmund-Bochum</t>
+  </si>
+  <si>
+    <t>Freiburg-St Pauli</t>
+  </si>
+  <si>
+    <t>Mainz-Heidenheim</t>
+  </si>
+  <si>
+    <t>Mgladbach-Union Berlin</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Augsburg</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Stuttgart</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Leverkusen</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Werder Bremen</t>
   </si>
   <si>
     <t>Bastian Dankert</t>
@@ -753,6 +819,9 @@
   </si>
   <si>
     <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
   </si>
 </sst>
 </file>
@@ -1064,16 +1133,16 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1082,7 +1151,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1091,7 +1160,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L2" t="n">
         <v>5.33</v>
@@ -1103,10 +1172,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1154,16 +1223,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.0</v>
@@ -1172,10 +1241,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>226</v>
+        <v>204</v>
+      </c>
+      <c r="AM2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN2" t="n">
         <v>284.0</v>
@@ -1318,16 +1387,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1336,7 +1405,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1345,7 +1414,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L3" t="n">
         <v>2.32</v>
@@ -1357,10 +1426,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
@@ -1408,16 +1477,16 @@
         <v>21.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AG3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1426,10 +1495,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="AM3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN3" t="n">
         <v>121.0</v>
@@ -1572,16 +1641,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
@@ -1590,7 +1659,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1599,7 +1668,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1611,10 +1680,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q4" t="n">
         <v>15.0</v>
@@ -1662,16 +1731,16 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="AG4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1680,10 +1749,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>226</v>
+        <v>206</v>
+      </c>
+      <c r="AM4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN4" t="n">
         <v>144.0</v>
@@ -1826,16 +1895,16 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1844,7 +1913,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
@@ -1853,7 +1922,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1865,10 +1934,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -1916,16 +1985,16 @@
         <v>22.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AG5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.0</v>
@@ -1934,10 +2003,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>226</v>
+        <v>207</v>
+      </c>
+      <c r="AM5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN5" t="n">
         <v>282.0</v>
@@ -2080,16 +2149,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2098,7 +2167,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2107,7 +2176,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L6" t="n">
         <v>2.08</v>
@@ -2119,10 +2188,10 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q6" t="n">
         <v>15.0</v>
@@ -2170,16 +2239,16 @@
         <v>24.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AG6" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -2188,10 +2257,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>226</v>
+        <v>208</v>
+      </c>
+      <c r="AM6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN6" t="n">
         <v>127.0</v>
@@ -2334,16 +2403,16 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2352,7 +2421,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2361,7 +2430,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -2373,10 +2442,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
@@ -2424,16 +2493,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AG7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2442,10 +2511,10 @@
         <v>1.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="AM7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN7" t="n">
         <v>59.0</v>
@@ -2588,16 +2657,16 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2606,7 +2675,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2615,7 +2684,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -2627,10 +2696,10 @@
         <v>4.48</v>
       </c>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q8" t="n">
         <v>17.0</v>
@@ -2678,16 +2747,16 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AG8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.0</v>
@@ -2696,10 +2765,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="AM8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN8" t="n">
         <v>162.0</v>
@@ -2842,16 +2911,16 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2860,7 +2929,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2869,7 +2938,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L9" t="n">
         <v>6.33</v>
@@ -2881,10 +2950,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q9" t="n">
         <v>11.0</v>
@@ -2932,16 +3001,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG9" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH9" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI9" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ9" t="n">
         <v>5.0</v>
@@ -2950,10 +3019,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="AM9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN9" t="n">
         <v>269.0</v>
@@ -3096,16 +3165,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3114,7 +3183,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3123,7 +3192,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L10" t="n">
         <v>2.13</v>
@@ -3135,10 +3204,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -3186,16 +3255,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AG10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH10" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI10" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -3204,10 +3273,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>226</v>
+        <v>212</v>
+      </c>
+      <c r="AM10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN10" t="n">
         <v>148.0</v>
@@ -3350,16 +3419,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3368,7 +3437,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3377,7 +3446,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L11" t="n">
         <v>1.96</v>
@@ -3389,10 +3458,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
@@ -3440,16 +3509,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AG11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3458,10 +3527,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AM11" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="AN11" t="n">
         <v>34.0</v>
@@ -3604,16 +3673,16 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3622,7 +3691,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3631,7 +3700,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L12" t="n">
         <v>2.66</v>
@@ -3643,10 +3712,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>16.0</v>
@@ -3694,16 +3763,16 @@
         <v>19.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG12" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH12" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI12" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.0</v>
@@ -3712,10 +3781,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="AM12" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
         <v>145.0</v>
@@ -3858,16 +3927,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3876,7 +3945,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
@@ -3885,7 +3954,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -3897,10 +3966,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q13" t="n">
         <v>17.0</v>
@@ -3948,16 +4017,16 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH13" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI13" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3966,10 +4035,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AM13" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AN13" t="n">
         <v>167.0</v>
@@ -4112,16 +4181,16 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -4130,7 +4199,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -4139,7 +4208,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L14" t="n">
         <v>3.26</v>
@@ -4151,10 +4220,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
@@ -4202,16 +4271,16 @@
         <v>31.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH14" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI14" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.0</v>
@@ -4220,10 +4289,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AM14" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AN14" t="n">
         <v>57.0</v>
@@ -4366,16 +4435,16 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
         <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -4384,7 +4453,7 @@
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -4393,7 +4462,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L15" t="n">
         <v>1.66</v>
@@ -4405,10 +4474,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q15" t="n">
         <v>28.0</v>
@@ -4456,16 +4525,16 @@
         <v>18.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH15" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI15" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.0</v>
@@ -4474,10 +4543,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AM15" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AN15" t="n">
         <v>306.0</v>
@@ -4620,16 +4689,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4638,7 +4707,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4647,7 +4716,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L16" t="n">
         <v>4.05</v>
@@ -4659,10 +4728,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4710,16 +4779,16 @@
         <v>27.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH16" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI16" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.0</v>
@@ -4728,10 +4797,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AM16" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="AN16" t="n">
         <v>0.0</v>
@@ -4874,16 +4943,16 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -4892,7 +4961,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4901,7 +4970,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L17" t="n">
         <v>1.8</v>
@@ -4913,10 +4982,10 @@
         <v>4.1</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q17" t="n">
         <v>27.0</v>
@@ -4964,16 +5033,16 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH17" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI17" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ17" t="n">
         <v>4.0</v>
@@ -4982,10 +5051,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AM17" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AN17" t="n">
         <v>266.0</v>
@@ -5128,16 +5197,16 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -5146,7 +5215,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
@@ -5155,7 +5224,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L18" t="n">
         <v>2.42</v>
@@ -5167,10 +5236,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -5218,16 +5287,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH18" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI18" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -5236,10 +5305,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="AN18" t="n">
         <v>181.0</v>
@@ -5382,16 +5451,16 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -5400,7 +5469,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5409,7 +5478,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -5421,10 +5490,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -5472,16 +5541,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH19" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI19" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.0</v>
@@ -5490,10 +5559,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="AN19" t="n">
         <v>116.0</v>
@@ -5636,16 +5705,16 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5654,7 +5723,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -5663,7 +5732,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -5675,10 +5744,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q20" t="n">
         <v>13.0</v>
@@ -5726,16 +5795,16 @@
         <v>31.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH20" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI20" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -5744,10 +5813,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="AN20" t="n">
         <v>273.0</v>
@@ -5890,16 +5959,16 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5908,7 +5977,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5917,7 +5986,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L21" t="n">
         <v>1.69</v>
@@ -5929,10 +5998,10 @@
         <v>4.9</v>
       </c>
       <c r="O21" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q21" t="n">
         <v>27.0</v>
@@ -5980,16 +6049,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH21" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI21" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ21" t="n">
         <v>3.0</v>
@@ -5998,10 +6067,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="n">
         <v>164.0</v>
@@ -6144,16 +6213,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6162,7 +6231,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -6171,7 +6240,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L22" t="n">
         <v>5.95</v>
@@ -6183,10 +6252,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -6234,16 +6303,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH22" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI22" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -6252,10 +6321,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="n">
         <v>161.0</v>
@@ -6398,16 +6467,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -6416,7 +6485,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -6425,7 +6494,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L23" t="n">
         <v>2.84</v>
@@ -6437,10 +6506,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -6488,16 +6557,16 @@
         <v>26.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH23" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI23" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ23" t="n">
         <v>4.0</v>
@@ -6506,10 +6575,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="n">
         <v>167.0</v>
@@ -6652,16 +6721,16 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6670,7 +6739,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6679,7 +6748,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -6691,10 +6760,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q24" t="n">
         <v>16.0</v>
@@ -6742,16 +6811,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AG24" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH24" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI24" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -6760,10 +6829,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="n">
         <v>0.0</v>
@@ -6906,16 +6975,16 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6924,7 +6993,7 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6933,7 +7002,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L25" t="n">
         <v>2.72</v>
@@ -6945,10 +7014,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -6996,16 +7065,16 @@
         <v>25.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AG25" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH25" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI25" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -7014,10 +7083,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AM25" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="n">
         <v>188.0</v>
@@ -7160,16 +7229,16 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -7178,7 +7247,7 @@
         <v>6.0</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -7187,7 +7256,7 @@
         <v>4.0</v>
       </c>
       <c r="K26" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -7199,10 +7268,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q26" t="n">
         <v>5.0</v>
@@ -7250,16 +7319,16 @@
         <v>23.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG26" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH26" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI26" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.0</v>
@@ -7268,10 +7337,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="n">
         <v>301.0</v>
@@ -7414,16 +7483,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -7432,7 +7501,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -7441,7 +7510,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L27" t="n">
         <v>2.09</v>
@@ -7453,10 +7522,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -7504,16 +7573,16 @@
         <v>22.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH27" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI27" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -7522,10 +7591,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AM27" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="n">
         <v>279.0</v>
@@ -7668,16 +7737,16 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7686,7 +7755,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7695,7 +7764,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L28" t="n">
         <v>2.04</v>
@@ -7707,10 +7776,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q28" t="n">
         <v>11.0</v>
@@ -7758,16 +7827,16 @@
         <v>19.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AG28" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH28" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI28" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ28" t="n">
         <v>4.0</v>
@@ -7776,10 +7845,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="n">
         <v>104.0</v>
@@ -7922,16 +7991,16 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -7940,7 +8009,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -7949,7 +8018,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L29" t="n">
         <v>2.42</v>
@@ -7961,10 +8030,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q29" t="n">
         <v>30.0</v>
@@ -8012,16 +8081,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AG29" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH29" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI29" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -8030,10 +8099,10 @@
         <v>2.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
         <v>159.0</v>
@@ -8176,16 +8245,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -8194,7 +8263,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -8203,7 +8272,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L30" t="n">
         <v>1.99</v>
@@ -8215,10 +8284,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -8266,16 +8335,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH30" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI30" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -8284,10 +8353,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="n">
         <v>161.0</v>
@@ -8430,16 +8499,16 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -8448,7 +8517,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -8457,7 +8526,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
@@ -8469,10 +8538,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q31" t="n">
         <v>7.0</v>
@@ -8520,16 +8589,16 @@
         <v>13.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG31" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH31" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI31" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ31" t="n">
         <v>2.0</v>
@@ -8538,10 +8607,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AM31" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="n">
         <v>178.0</v>
@@ -8684,16 +8753,16 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -8702,7 +8771,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
@@ -8711,7 +8780,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L32" t="n">
         <v>2.04</v>
@@ -8723,10 +8792,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q32" t="n">
         <v>12.0</v>
@@ -8774,16 +8843,16 @@
         <v>35.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG32" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH32" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI32" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -8792,10 +8861,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="AM32" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AN32" t="n">
         <v>77.0</v>
@@ -8938,16 +9007,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -8956,7 +9025,7 @@
         <v>5.0</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -8965,7 +9034,7 @@
         <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L33" t="n">
         <v>7.92</v>
@@ -8977,10 +9046,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -9028,16 +9097,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH33" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI33" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -9046,10 +9115,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AM33" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="n">
         <v>237.0</v>
@@ -9192,16 +9261,16 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -9210,7 +9279,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -9219,7 +9288,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L34" t="n">
         <v>1.79</v>
@@ -9231,10 +9300,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -9282,16 +9351,16 @@
         <v>22.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH34" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI34" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -9300,10 +9369,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AM34" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="AN34" t="n">
         <v>111.0</v>
@@ -9446,16 +9515,16 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F35" t="n">
         <v>4.0</v>
@@ -9464,7 +9533,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
@@ -9473,7 +9542,7 @@
         <v>3.0</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -9485,10 +9554,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -9536,16 +9605,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.0</v>
@@ -9554,10 +9623,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AM35" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="AN35" t="n">
         <v>271.0</v>
@@ -9700,16 +9769,16 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F36" t="n">
         <v>5.0</v>
@@ -9718,7 +9787,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
@@ -9727,7 +9796,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L36" t="n">
         <v>2.32</v>
@@ -9739,10 +9808,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0</v>
@@ -9790,16 +9859,16 @@
         <v>16.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG36" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AH36" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AI36" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.0</v>
@@ -9808,10 +9877,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="AM36" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AN36" t="n">
         <v>332.0</v>
@@ -9954,16 +10023,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -9972,7 +10041,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -9981,7 +10050,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L37" t="n">
         <v>5.19</v>
@@ -9993,10 +10062,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -10044,16 +10113,16 @@
         <v>15.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AG37" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH37" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AI37" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AJ37" t="n">
         <v>3.0</v>
@@ -10062,10 +10131,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="AN37" t="n">
         <v>0.0</v>
@@ -10201,6 +10270,2292 @@
       </c>
       <c r="CF37" t="n">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="N38" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>3289.0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="O39" t="s">
+        <v>150</v>
+      </c>
+      <c r="P39" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>4140.0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>774.0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="CB39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CC39" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CD39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CE39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>4225.0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1690.0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>2730.0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>1313.0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3380.0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="CB40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC40" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CD40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CE40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>148</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O41" t="s">
+        <v>154</v>
+      </c>
+      <c r="P41" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="CB41" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="O42" t="s">
+        <v>153</v>
+      </c>
+      <c r="P42" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>2430.0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>1677.0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CB42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CC42" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CE42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>148</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O43" t="s">
+        <v>152</v>
+      </c>
+      <c r="P43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>6270.0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="CB43" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CC43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CD43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CE43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>152</v>
+      </c>
+      <c r="P44" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>2120.0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="CB44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CC44" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>148</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O45" t="s">
+        <v>152</v>
+      </c>
+      <c r="P45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>3760.0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>3783.0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>3120.0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="CB45" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CC45" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CD45" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CE45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O46" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>8925.0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>4760.0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="CB46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CC46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CD46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CE46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>174.0</v>
       </c>
     </row>
   </sheetData>

--- a/BUNDES_FINALSPREAD.xlsx
+++ b/BUNDES_FINALSPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="317">
   <si>
     <t>Div</t>
   </si>
@@ -398,6 +398,60 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -503,6 +557,9 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -620,6 +677,33 @@
     <t>2-6</t>
   </si>
   <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -761,6 +845,60 @@
     <t>Hoffenheim-Werder Bremen</t>
   </si>
   <si>
+    <t>Augsburg-Mgladbach</t>
+  </si>
+  <si>
+    <t>Bochum-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Leverkusen-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Union Berlin-Dortmund</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli-Mainz</t>
+  </si>
+  <si>
+    <t>Heidenheim-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Stuttgart-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund-St Pauli</t>
+  </si>
+  <si>
+    <t>Freiburg-Augsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Bochum</t>
+  </si>
+  <si>
+    <t>Leverkusen-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Mainz-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Mgladbach-Heidenheim</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Stuttgart</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Union Berlin</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Werder Bremen</t>
+  </si>
+  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
@@ -822,6 +960,9 @@
   </si>
   <si>
     <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Max Burda</t>
   </si>
 </sst>
 </file>
@@ -1133,16 +1274,16 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1151,7 +1292,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1160,7 +1301,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L2" t="n">
         <v>5.33</v>
@@ -1172,10 +1313,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1223,16 +1364,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.0</v>
@@ -1241,7 +1382,7 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="AM2" t="e">
         <v>#N/A</v>
@@ -1387,16 +1528,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1405,7 +1546,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1414,7 +1555,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
         <v>2.32</v>
@@ -1426,10 +1567,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
@@ -1477,16 +1618,16 @@
         <v>21.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1495,7 +1636,7 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="AM3" t="e">
         <v>#N/A</v>
@@ -1641,16 +1782,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
@@ -1659,7 +1800,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1668,7 +1809,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1680,10 +1821,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q4" t="n">
         <v>15.0</v>
@@ -1731,16 +1872,16 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AG4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1749,7 +1890,7 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="AM4" t="e">
         <v>#N/A</v>
@@ -1895,16 +2036,16 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1913,7 +2054,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
@@ -1922,7 +2063,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1934,10 +2075,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -1985,16 +2126,16 @@
         <v>22.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG5" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH5" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI5" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.0</v>
@@ -2003,7 +2144,7 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="AM5" t="e">
         <v>#N/A</v>
@@ -2149,16 +2290,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2167,7 +2308,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2176,7 +2317,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L6" t="n">
         <v>2.08</v>
@@ -2188,10 +2329,10 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q6" t="n">
         <v>15.0</v>
@@ -2239,16 +2380,16 @@
         <v>24.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AG6" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -2257,7 +2398,7 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AM6" t="e">
         <v>#N/A</v>
@@ -2403,16 +2544,16 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2421,7 +2562,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2430,7 +2571,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -2442,10 +2583,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
@@ -2493,16 +2634,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AH7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2511,7 +2652,7 @@
         <v>1.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="AM7" t="e">
         <v>#N/A</v>
@@ -2657,16 +2798,16 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2675,7 +2816,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2684,7 +2825,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -2696,10 +2837,10 @@
         <v>4.48</v>
       </c>
       <c r="O8" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q8" t="n">
         <v>17.0</v>
@@ -2747,16 +2888,16 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG8" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH8" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI8" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.0</v>
@@ -2765,7 +2906,7 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="AM8" t="e">
         <v>#N/A</v>
@@ -2911,16 +3052,16 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2929,7 +3070,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2938,7 +3079,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L9" t="n">
         <v>6.33</v>
@@ -2950,10 +3091,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q9" t="n">
         <v>11.0</v>
@@ -3001,16 +3142,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG9" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH9" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI9" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ9" t="n">
         <v>5.0</v>
@@ -3019,7 +3160,7 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AM9" t="e">
         <v>#N/A</v>
@@ -3165,16 +3306,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3183,7 +3324,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3192,7 +3333,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L10" t="n">
         <v>2.13</v>
@@ -3204,10 +3345,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -3255,16 +3396,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG10" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH10" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI10" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -3273,7 +3414,7 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="AM10" t="e">
         <v>#N/A</v>
@@ -3419,16 +3560,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3437,7 +3578,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3446,7 +3587,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L11" t="n">
         <v>1.96</v>
@@ -3458,10 +3599,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
@@ -3509,16 +3650,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AH11" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI11" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3527,10 +3668,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="AM11" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="AN11" t="n">
         <v>34.0</v>
@@ -3673,16 +3814,16 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3691,7 +3832,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3700,7 +3841,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L12" t="n">
         <v>2.66</v>
@@ -3712,10 +3853,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="n">
         <v>16.0</v>
@@ -3763,16 +3904,16 @@
         <v>19.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG12" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH12" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI12" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.0</v>
@@ -3781,10 +3922,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="AM12" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="AN12" t="n">
         <v>145.0</v>
@@ -3927,16 +4068,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3945,7 +4086,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
@@ -3954,7 +4095,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -3966,10 +4107,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q13" t="n">
         <v>17.0</v>
@@ -4017,16 +4158,16 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG13" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH13" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI13" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -4035,10 +4176,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AM13" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="AN13" t="n">
         <v>167.0</v>
@@ -4181,16 +4322,16 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -4199,7 +4340,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -4208,7 +4349,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L14" t="n">
         <v>3.26</v>
@@ -4220,10 +4361,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
@@ -4271,16 +4412,16 @@
         <v>31.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG14" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH14" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI14" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.0</v>
@@ -4289,10 +4430,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="AM14" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="AN14" t="n">
         <v>57.0</v>
@@ -4435,16 +4576,16 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -4453,7 +4594,7 @@
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -4462,7 +4603,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L15" t="n">
         <v>1.66</v>
@@ -4474,10 +4615,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q15" t="n">
         <v>28.0</v>
@@ -4525,16 +4666,16 @@
         <v>18.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG15" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH15" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI15" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.0</v>
@@ -4543,10 +4684,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="AM15" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="AN15" t="n">
         <v>306.0</v>
@@ -4689,16 +4830,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4707,7 +4848,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4716,7 +4857,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L16" t="n">
         <v>4.05</v>
@@ -4728,10 +4869,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4779,16 +4920,16 @@
         <v>27.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AH16" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI16" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.0</v>
@@ -4797,10 +4938,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="AM16" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="AN16" t="n">
         <v>0.0</v>
@@ -4943,16 +5084,16 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -4961,7 +5102,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4970,7 +5111,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L17" t="n">
         <v>1.8</v>
@@ -4982,10 +5123,10 @@
         <v>4.1</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q17" t="n">
         <v>27.0</v>
@@ -5033,16 +5174,16 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH17" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI17" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ17" t="n">
         <v>4.0</v>
@@ -5051,10 +5192,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="AM17" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="AN17" t="n">
         <v>266.0</v>
@@ -5197,16 +5338,16 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -5215,7 +5356,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
@@ -5224,7 +5365,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L18" t="n">
         <v>2.42</v>
@@ -5236,10 +5377,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -5287,16 +5428,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH18" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI18" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -5305,10 +5446,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="AM18" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AN18" t="n">
         <v>181.0</v>
@@ -5451,16 +5592,16 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -5469,7 +5610,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5478,7 +5619,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -5490,10 +5631,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -5541,16 +5682,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH19" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI19" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.0</v>
@@ -5559,10 +5700,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AM19" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="AN19" t="n">
         <v>116.0</v>
@@ -5705,16 +5846,16 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5723,7 +5864,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -5732,7 +5873,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -5744,10 +5885,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q20" t="n">
         <v>13.0</v>
@@ -5795,16 +5936,16 @@
         <v>31.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH20" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI20" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -5813,10 +5954,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="AN20" t="n">
         <v>273.0</v>
@@ -5959,16 +6100,16 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5977,7 +6118,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5986,7 +6127,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L21" t="n">
         <v>1.69</v>
@@ -5998,10 +6139,10 @@
         <v>4.9</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q21" t="n">
         <v>27.0</v>
@@ -6049,16 +6190,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH21" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI21" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ21" t="n">
         <v>3.0</v>
@@ -6067,10 +6208,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="AM21" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AN21" t="n">
         <v>164.0</v>
@@ -6213,16 +6354,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6231,7 +6372,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -6240,7 +6381,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L22" t="n">
         <v>5.95</v>
@@ -6252,10 +6393,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -6303,16 +6444,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH22" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI22" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -6321,10 +6462,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="AN22" t="n">
         <v>161.0</v>
@@ -6467,16 +6608,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -6485,7 +6626,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -6494,7 +6635,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L23" t="n">
         <v>2.84</v>
@@ -6506,10 +6647,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -6557,16 +6698,16 @@
         <v>26.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH23" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI23" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ23" t="n">
         <v>4.0</v>
@@ -6575,10 +6716,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="AN23" t="n">
         <v>167.0</v>
@@ -6721,16 +6862,16 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6739,7 +6880,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6748,7 +6889,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -6760,10 +6901,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q24" t="n">
         <v>16.0</v>
@@ -6811,16 +6952,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AH24" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI24" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -6829,10 +6970,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="AN24" t="n">
         <v>0.0</v>
@@ -6975,16 +7116,16 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6993,7 +7134,7 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -7002,7 +7143,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L25" t="n">
         <v>2.72</v>
@@ -7014,10 +7155,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -7065,16 +7206,16 @@
         <v>25.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH25" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI25" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -7083,10 +7224,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="AN25" t="n">
         <v>188.0</v>
@@ -7229,16 +7370,16 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -7247,7 +7388,7 @@
         <v>6.0</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -7256,7 +7397,7 @@
         <v>4.0</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -7268,10 +7409,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q26" t="n">
         <v>5.0</v>
@@ -7319,16 +7460,16 @@
         <v>23.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="AG26" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH26" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI26" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.0</v>
@@ -7337,10 +7478,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="n">
         <v>301.0</v>
@@ -7483,16 +7624,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -7501,7 +7642,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -7510,7 +7651,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L27" t="n">
         <v>2.09</v>
@@ -7522,10 +7663,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -7573,16 +7714,16 @@
         <v>22.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG27" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH27" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI27" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -7591,10 +7732,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="n">
         <v>279.0</v>
@@ -7737,16 +7878,16 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7755,7 +7896,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7764,7 +7905,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L28" t="n">
         <v>2.04</v>
@@ -7776,10 +7917,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q28" t="n">
         <v>11.0</v>
@@ -7827,16 +7968,16 @@
         <v>19.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH28" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI28" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ28" t="n">
         <v>4.0</v>
@@ -7845,10 +7986,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="n">
         <v>104.0</v>
@@ -7991,16 +8132,16 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -8009,7 +8150,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -8018,7 +8159,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L29" t="n">
         <v>2.42</v>
@@ -8030,10 +8171,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q29" t="n">
         <v>30.0</v>
@@ -8081,16 +8222,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -8099,10 +8240,10 @@
         <v>2.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="n">
         <v>159.0</v>
@@ -8245,16 +8386,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -8263,7 +8404,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -8272,7 +8413,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L30" t="n">
         <v>1.99</v>
@@ -8284,10 +8425,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -8335,16 +8476,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH30" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI30" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -8353,10 +8494,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="n">
         <v>161.0</v>
@@ -8398,10 +8539,10 @@
         <v>1400.0</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BC30" t="n">
         <v>22.0</v>
@@ -8499,16 +8640,16 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -8517,7 +8658,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -8526,7 +8667,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
@@ -8538,10 +8679,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q31" t="n">
         <v>7.0</v>
@@ -8589,16 +8730,16 @@
         <v>13.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH31" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI31" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ31" t="n">
         <v>2.0</v>
@@ -8607,10 +8748,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="AM31" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="n">
         <v>178.0</v>
@@ -8753,16 +8894,16 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -8771,7 +8912,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
@@ -8780,7 +8921,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L32" t="n">
         <v>2.04</v>
@@ -8792,10 +8933,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q32" t="n">
         <v>12.0</v>
@@ -8843,16 +8984,16 @@
         <v>35.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AG32" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH32" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI32" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -8861,10 +9002,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AM32" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="AN32" t="n">
         <v>77.0</v>
@@ -9007,16 +9148,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -9025,7 +9166,7 @@
         <v>5.0</v>
       </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -9034,7 +9175,7 @@
         <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L33" t="n">
         <v>7.92</v>
@@ -9046,10 +9187,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -9097,16 +9238,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG33" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH33" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI33" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -9115,10 +9256,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="n">
         <v>237.0</v>
@@ -9261,16 +9402,16 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -9279,7 +9420,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -9288,7 +9429,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L34" t="n">
         <v>1.79</v>
@@ -9300,10 +9441,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -9351,16 +9492,16 @@
         <v>22.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG34" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH34" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI34" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -9369,10 +9510,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="n">
         <v>111.0</v>
@@ -9515,16 +9656,16 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F35" t="n">
         <v>4.0</v>
@@ -9533,7 +9674,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
@@ -9542,7 +9683,7 @@
         <v>3.0</v>
       </c>
       <c r="K35" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -9554,10 +9695,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -9605,16 +9746,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH35" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI35" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.0</v>
@@ -9623,10 +9764,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="AM35" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="n">
         <v>271.0</v>
@@ -9769,16 +9910,16 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F36" t="n">
         <v>5.0</v>
@@ -9787,7 +9928,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
@@ -9796,7 +9937,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L36" t="n">
         <v>2.32</v>
@@ -9808,10 +9949,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0</v>
@@ -9859,16 +10000,16 @@
         <v>16.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AG36" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH36" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI36" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.0</v>
@@ -9877,10 +10018,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="AM36" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="AN36" t="n">
         <v>332.0</v>
@@ -10023,16 +10164,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -10041,7 +10182,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -10050,7 +10191,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L37" t="n">
         <v>5.19</v>
@@ -10062,10 +10203,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -10113,16 +10254,16 @@
         <v>15.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AG37" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AH37" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI37" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ37" t="n">
         <v>3.0</v>
@@ -10131,10 +10272,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="AM37" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="AN37" t="n">
         <v>0.0</v>
@@ -10277,16 +10418,16 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -10295,7 +10436,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -10304,7 +10445,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L38" t="n">
         <v>1.24</v>
@@ -10316,10 +10457,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q38" t="n">
         <v>23.0</v>
@@ -10367,16 +10508,16 @@
         <v>21.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AG38" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH38" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI38" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -10385,10 +10526,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="AM38" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="AN38" t="n">
         <v>299.0</v>
@@ -10531,16 +10672,16 @@
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -10549,7 +10690,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -10558,7 +10699,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L39" t="n">
         <v>1.62</v>
@@ -10570,10 +10711,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q39" t="n">
         <v>6.0</v>
@@ -10621,16 +10762,16 @@
         <v>25.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG39" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH39" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI39" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ39" t="n">
         <v>6.0</v>
@@ -10639,10 +10780,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AM39" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="AN39" t="n">
         <v>129.0</v>
@@ -10785,16 +10926,16 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -10803,7 +10944,7 @@
         <v>2.0</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -10812,7 +10953,7 @@
         <v>1.0</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L40" t="n">
         <v>1.86</v>
@@ -10824,10 +10965,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q40" t="n">
         <v>7.0</v>
@@ -10875,16 +11016,16 @@
         <v>20.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AG40" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH40" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI40" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -10893,10 +11034,10 @@
         <v>2.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="AM40" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="AN40" t="n">
         <v>101.0</v>
@@ -11039,16 +11180,16 @@
         <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -11057,7 +11198,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -11066,7 +11207,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L41" t="n">
         <v>2.13</v>
@@ -11078,10 +11219,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -11129,16 +11270,16 @@
         <v>22.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG41" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AH41" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI41" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ41" t="n">
         <v>4.0</v>
@@ -11147,10 +11288,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="AN41" t="n">
         <v>90.0</v>
@@ -11293,16 +11434,16 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F42" t="n">
         <v>4.0</v>
@@ -11311,7 +11452,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
@@ -11320,7 +11461,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L42" t="n">
         <v>1.4</v>
@@ -11332,10 +11473,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -11383,16 +11524,16 @@
         <v>22.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG42" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH42" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI42" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ42" t="n">
         <v>3.0</v>
@@ -11401,10 +11542,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AM42" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AN42" t="n">
         <v>129.0</v>
@@ -11547,16 +11688,16 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -11565,7 +11706,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -11574,7 +11715,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L43" t="n">
         <v>3.35</v>
@@ -11586,10 +11727,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q43" t="n">
         <v>5.0</v>
@@ -11637,16 +11778,16 @@
         <v>30.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG43" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH43" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI43" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.0</v>
@@ -11655,10 +11796,10 @@
         <v>1.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AM43" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="AN43" t="n">
         <v>210.0</v>
@@ -11801,16 +11942,16 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -11819,7 +11960,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -11828,7 +11969,7 @@
         <v>1.0</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L44" t="n">
         <v>1.74</v>
@@ -11840,10 +11981,10 @@
         <v>4.36</v>
       </c>
       <c r="O44" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q44" t="n">
         <v>18.0</v>
@@ -11891,16 +12032,16 @@
         <v>26.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH44" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AI44" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.0</v>
@@ -11909,10 +12050,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AM44" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="n">
         <v>70.0</v>
@@ -12055,16 +12196,16 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -12073,7 +12214,7 @@
         <v>4.0</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -12082,7 +12223,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L45" t="n">
         <v>4.5</v>
@@ -12094,10 +12235,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q45" t="n">
         <v>10.0</v>
@@ -12145,16 +12286,16 @@
         <v>25.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AG45" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH45" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI45" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ45" t="n">
         <v>4.0</v>
@@ -12163,10 +12304,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="AM45" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="AN45" t="n">
         <v>291.0</v>
@@ -12309,16 +12450,16 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -12327,7 +12468,7 @@
         <v>4.0</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -12336,7 +12477,7 @@
         <v>3.0</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L46" t="n">
         <v>2.4</v>
@@ -12348,10 +12489,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q46" t="n">
         <v>10.0</v>
@@ -12399,16 +12540,16 @@
         <v>31.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="AG46" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AH46" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AI46" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AJ46" t="n">
         <v>6.0</v>
@@ -12417,10 +12558,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="AM46" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="AN46" t="n">
         <v>160.0</v>
@@ -12556,6 +12697,4578 @@
       </c>
       <c r="CF46" t="n">
         <v>174.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>45569.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O47" t="s">
+        <v>174</v>
+      </c>
+      <c r="P47" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>4380.0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>165</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O48" t="s">
+        <v>168</v>
+      </c>
+      <c r="P48" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>2834.0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="CB48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M49" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="N49" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>2520.0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O50" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O51" t="s">
+        <v>172</v>
+      </c>
+      <c r="P51" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O52" t="s">
+        <v>168</v>
+      </c>
+      <c r="P52" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>172</v>
+      </c>
+      <c r="P53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O54" t="s">
+        <v>180</v>
+      </c>
+      <c r="P54" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>2783.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>133.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>165</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45583.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>167</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="O56" t="s">
+        <v>174</v>
+      </c>
+      <c r="P56" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1632.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>167</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="O57" t="s">
+        <v>181</v>
+      </c>
+      <c r="P57" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>774.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>1629.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>167</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O58" t="s">
+        <v>174</v>
+      </c>
+      <c r="P58" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>1446.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>166</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="O59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P59" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>1243.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O60" t="s">
+        <v>168</v>
+      </c>
+      <c r="P60" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>166</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O61" t="s">
+        <v>170</v>
+      </c>
+      <c r="P61" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>3060.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>2259.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>166</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="O62" t="s">
+        <v>172</v>
+      </c>
+      <c r="P62" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>2860.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC62" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CE62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>165</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>173</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1530.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CC63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CD63" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>166</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O64" t="s">
+        <v>170</v>
+      </c>
+      <c r="P64" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>4095.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>546.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>2664.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2160.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="CB64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CC64" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="CD64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CE64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>139.0</v>
       </c>
     </row>
   </sheetData>
